--- a/datasets/Ch4/daily_boxoffice.xlsx
+++ b/datasets/Ch4/daily_boxoffice.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="movies" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="movies_fixed_dates" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="movies_fixed_dates1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="movies_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="movies_fixed_dates" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="movies_fixed_dates1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,8 +20,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="MM-DD-YYYY"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="mm-dd-yyyy"/>
+    <numFmt numFmtId="166" formatCode="MM-DD-YYYY"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -61,7 +61,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -75,9 +75,15 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1775,7 +1781,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="8" t="n">
         <v>44312</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1785,7 +1791,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="8" t="n">
         <v>44313</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1795,7 +1801,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="8" t="n">
         <v>44314</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1805,7 +1811,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="8" t="n">
         <v>44315</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -1815,7 +1821,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="8" t="n">
         <v>44316</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -1825,7 +1831,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="8" t="n">
         <v>44317</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -1835,7 +1841,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="8" t="n">
         <v>44318</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -1845,7 +1851,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="8" t="n">
         <v>44319</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -1855,7 +1861,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="8" t="n">
         <v>44320</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -1865,7 +1871,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="8" t="n">
         <v>44321</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -1875,7 +1881,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="8" t="n">
         <v>44322</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -1885,7 +1891,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="8" t="n">
         <v>44323</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -1895,7 +1901,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="8" t="n">
         <v>44324</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -1905,7 +1911,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="8" t="n">
         <v>44325</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -1915,7 +1921,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="8" t="n">
         <v>44326</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1925,7 +1931,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="8" t="n">
         <v>44327</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -1935,7 +1941,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="8" t="n">
         <v>44328</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -1945,7 +1951,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="8" t="n">
         <v>44329</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -1955,7 +1961,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="8" t="n">
         <v>44330</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -1965,7 +1971,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n">
+      <c r="A21" s="8" t="n">
         <v>44331</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -1975,7 +1981,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n">
+      <c r="A22" s="8" t="n">
         <v>44332</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -1985,7 +1991,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n">
+      <c r="A23" s="8" t="n">
         <v>44333</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1995,7 +2001,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n">
+      <c r="A24" s="8" t="n">
         <v>44334</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -2005,7 +2011,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n">
+      <c r="A25" s="8" t="n">
         <v>44335</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -2015,7 +2021,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="n">
+      <c r="A26" s="8" t="n">
         <v>44336</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -2025,7 +2031,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n">
+      <c r="A27" s="8" t="n">
         <v>44337</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -2035,7 +2041,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="n">
+      <c r="A28" s="8" t="n">
         <v>44338</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -2045,7 +2051,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n">
+      <c r="A29" s="8" t="n">
         <v>44339</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -2055,7 +2061,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="n">
+      <c r="A30" s="8" t="n">
         <v>44340</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -2065,7 +2071,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n">
+      <c r="A31" s="8" t="n">
         <v>44341</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -2075,7 +2081,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="n">
+      <c r="A32" s="8" t="n">
         <v>44342</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -2085,7 +2091,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n">
+      <c r="A33" s="8" t="n">
         <v>44343</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -2095,7 +2101,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n">
+      <c r="A34" s="8" t="n">
         <v>44344</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -2105,7 +2111,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n">
+      <c r="A35" s="8" t="n">
         <v>44345</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -2115,7 +2121,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n">
+      <c r="A36" s="8" t="n">
         <v>44346</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -2125,7 +2131,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n">
+      <c r="A37" s="8" t="n">
         <v>44347</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -2135,7 +2141,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n">
+      <c r="A38" s="8" t="n">
         <v>44348</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -2145,7 +2151,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n">
+      <c r="A39" s="8" t="n">
         <v>44349</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -2155,7 +2161,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n">
+      <c r="A40" s="8" t="n">
         <v>44350</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -2165,7 +2171,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n">
+      <c r="A41" s="8" t="n">
         <v>44351</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -2175,7 +2181,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n">
+      <c r="A42" s="8" t="n">
         <v>44352</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -2185,7 +2191,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n">
+      <c r="A43" s="8" t="n">
         <v>44353</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -2195,7 +2201,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="n">
+      <c r="A44" s="8" t="n">
         <v>44354</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -2205,7 +2211,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n">
+      <c r="A45" s="8" t="n">
         <v>44355</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -2215,7 +2221,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n">
+      <c r="A46" s="8" t="n">
         <v>44356</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -2225,7 +2231,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n">
+      <c r="A47" s="8" t="n">
         <v>44357</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -2235,7 +2241,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n">
+      <c r="A48" s="8" t="n">
         <v>44358</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -2245,7 +2251,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n">
+      <c r="A49" s="8" t="n">
         <v>44359</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -2255,7 +2261,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n">
+      <c r="A50" s="8" t="n">
         <v>44360</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -2265,7 +2271,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n">
+      <c r="A51" s="8" t="n">
         <v>44361</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -2275,7 +2281,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="n">
+      <c r="A52" s="8" t="n">
         <v>44362</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -2285,7 +2291,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n">
+      <c r="A53" s="8" t="n">
         <v>44363</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -2295,7 +2301,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n">
+      <c r="A54" s="8" t="n">
         <v>44364</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -2305,7 +2311,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n">
+      <c r="A55" s="8" t="n">
         <v>44365</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -2315,7 +2321,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="n">
+      <c r="A56" s="8" t="n">
         <v>44366</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -2325,7 +2331,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n">
+      <c r="A57" s="8" t="n">
         <v>44367</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -2335,7 +2341,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="n">
+      <c r="A58" s="8" t="n">
         <v>44368</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -2345,7 +2351,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n">
+      <c r="A59" s="8" t="n">
         <v>44369</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -2355,7 +2361,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="n">
+      <c r="A60" s="8" t="n">
         <v>44370</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -2365,7 +2371,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="n">
+      <c r="A61" s="8" t="n">
         <v>44371</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -2375,7 +2381,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="n">
+      <c r="A62" s="8" t="n">
         <v>44372</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -2385,7 +2391,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="n">
+      <c r="A63" s="8" t="n">
         <v>44373</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -2395,7 +2401,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="n">
+      <c r="A64" s="8" t="n">
         <v>44374</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -2405,7 +2411,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="n">
+      <c r="A65" s="8" t="n">
         <v>44375</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -2415,7 +2421,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="n">
+      <c r="A66" s="8" t="n">
         <v>44376</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -2425,7 +2431,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="n">
+      <c r="A67" s="8" t="n">
         <v>44377</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -2435,7 +2441,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="n">
+      <c r="A68" s="8" t="n">
         <v>44378</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -2445,7 +2451,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="n">
+      <c r="A69" s="8" t="n">
         <v>44379</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -2455,7 +2461,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="n">
+      <c r="A70" s="8" t="n">
         <v>44380</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -2465,7 +2471,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="n">
+      <c r="A71" s="8" t="n">
         <v>44381</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -2475,7 +2481,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="n">
+      <c r="A72" s="8" t="n">
         <v>44382</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -2485,7 +2491,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="n">
+      <c r="A73" s="8" t="n">
         <v>44383</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -2495,7 +2501,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="n">
+      <c r="A74" s="8" t="n">
         <v>44384</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -2505,7 +2511,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="n">
+      <c r="A75" s="8" t="n">
         <v>44385</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -2515,7 +2521,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="n">
+      <c r="A76" s="8" t="n">
         <v>44386</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -2525,7 +2531,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="5" t="n">
+      <c r="A77" s="8" t="n">
         <v>44387</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -2535,7 +2541,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="5" t="n">
+      <c r="A78" s="8" t="n">
         <v>44388</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -2545,7 +2551,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="5" t="n">
+      <c r="A79" s="8" t="n">
         <v>44389</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -2555,7 +2561,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="n">
+      <c r="A80" s="8" t="n">
         <v>44390</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -2565,7 +2571,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="n">
+      <c r="A81" s="8" t="n">
         <v>44391</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -2575,7 +2581,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="5" t="n">
+      <c r="A82" s="8" t="n">
         <v>44392</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -2585,7 +2591,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="5" t="n">
+      <c r="A83" s="8" t="n">
         <v>44393</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -2595,7 +2601,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="5" t="n">
+      <c r="A84" s="8" t="n">
         <v>44394</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -2605,7 +2611,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="5" t="n">
+      <c r="A85" s="8" t="n">
         <v>44395</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -2615,7 +2621,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="5" t="n">
+      <c r="A86" s="8" t="n">
         <v>44396</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -2625,7 +2631,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="5" t="n">
+      <c r="A87" s="8" t="n">
         <v>44397</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -2635,7 +2641,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="5" t="n">
+      <c r="A88" s="8" t="n">
         <v>44398</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -2645,7 +2651,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="5" t="n">
+      <c r="A89" s="8" t="n">
         <v>44399</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -2655,7 +2661,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="5" t="n">
+      <c r="A90" s="8" t="n">
         <v>44400</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -2665,7 +2671,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="5" t="n">
+      <c r="A91" s="8" t="n">
         <v>44401</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -2675,7 +2681,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="5" t="n">
+      <c r="A92" s="8" t="n">
         <v>44402</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -2685,7 +2691,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="5" t="n">
+      <c r="A93" s="8" t="n">
         <v>44403</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -2695,7 +2701,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="5" t="n">
+      <c r="A94" s="8" t="n">
         <v>44404</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -2705,7 +2711,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="5" t="n">
+      <c r="A95" s="8" t="n">
         <v>44405</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -2715,7 +2721,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="5" t="n">
+      <c r="A96" s="8" t="n">
         <v>44406</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -2725,7 +2731,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="5" t="n">
+      <c r="A97" s="8" t="n">
         <v>44407</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -2735,7 +2741,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="5" t="n">
+      <c r="A98" s="8" t="n">
         <v>44408</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -2745,7 +2751,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="5" t="n">
+      <c r="A99" s="8" t="n">
         <v>44409</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -2755,7 +2761,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="5" t="n">
+      <c r="A100" s="8" t="n">
         <v>44410</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -2765,7 +2771,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="n">
+      <c r="A101" s="8" t="n">
         <v>44411</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -2775,7 +2781,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="n">
+      <c r="A102" s="8" t="n">
         <v>44412</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -2785,7 +2791,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="5" t="n">
+      <c r="A103" s="8" t="n">
         <v>44413</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -2795,7 +2801,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="5" t="n">
+      <c r="A104" s="8" t="n">
         <v>44414</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -2805,7 +2811,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="5" t="n">
+      <c r="A105" s="8" t="n">
         <v>44415</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -2815,7 +2821,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="5" t="n">
+      <c r="A106" s="8" t="n">
         <v>44416</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -2825,7 +2831,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="5" t="n">
+      <c r="A107" s="8" t="n">
         <v>44417</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -2835,7 +2841,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="5" t="n">
+      <c r="A108" s="8" t="n">
         <v>44418</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -2845,7 +2851,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="5" t="n">
+      <c r="A109" s="8" t="n">
         <v>44419</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -2855,7 +2861,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="5" t="n">
+      <c r="A110" s="8" t="n">
         <v>44420</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -2865,7 +2871,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="5" t="n">
+      <c r="A111" s="8" t="n">
         <v>44421</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -2875,7 +2881,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="5" t="n">
+      <c r="A112" s="8" t="n">
         <v>44422</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -2885,7 +2891,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="5" t="n">
+      <c r="A113" s="8" t="n">
         <v>44423</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -2895,7 +2901,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="5" t="n">
+      <c r="A114" s="8" t="n">
         <v>44424</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -2905,7 +2911,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="5" t="n">
+      <c r="A115" s="8" t="n">
         <v>44425</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -2915,7 +2921,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="5" t="n">
+      <c r="A116" s="8" t="n">
         <v>44426</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -2925,7 +2931,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="5" t="n">
+      <c r="A117" s="8" t="n">
         <v>44427</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -2935,7 +2941,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="5" t="n">
+      <c r="A118" s="8" t="n">
         <v>44428</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -2945,7 +2951,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="5" t="n">
+      <c r="A119" s="8" t="n">
         <v>44429</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -2955,7 +2961,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="5" t="n">
+      <c r="A120" s="8" t="n">
         <v>44430</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -2965,7 +2971,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="5" t="n">
+      <c r="A121" s="8" t="n">
         <v>44431</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -2975,7 +2981,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="5" t="n">
+      <c r="A122" s="8" t="n">
         <v>44432</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -2985,7 +2991,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="5" t="n">
+      <c r="A123" s="8" t="n">
         <v>44433</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -2995,7 +3001,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="5" t="n">
+      <c r="A124" s="8" t="n">
         <v>44434</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -3005,7 +3011,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="5" t="n">
+      <c r="A125" s="8" t="n">
         <v>44435</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -3015,7 +3021,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="5" t="n">
+      <c r="A126" s="8" t="n">
         <v>44436</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -3025,7 +3031,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="5" t="n">
+      <c r="A127" s="8" t="n">
         <v>44437</v>
       </c>
       <c r="B127" t="inlineStr">
@@ -3035,7 +3041,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="5" t="n">
+      <c r="A128" s="8" t="n">
         <v>44438</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -3045,7 +3051,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="5" t="n">
+      <c r="A129" s="8" t="n">
         <v>44439</v>
       </c>
       <c r="B129" t="inlineStr">
@@ -3086,7 +3092,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="3" t="n">
         <v>44312</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -3096,7 +3102,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="3" t="n">
         <v>44313</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -3106,7 +3112,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="3" t="n">
         <v>44314</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -3116,7 +3122,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="3" t="n">
         <v>44315</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -3126,7 +3132,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="3" t="n">
         <v>44316</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -3136,7 +3142,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="3" t="n">
         <v>44317</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -3146,7 +3152,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="3" t="n">
         <v>44318</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -3156,7 +3162,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="3" t="n">
         <v>44319</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -3166,7 +3172,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="3" t="n">
         <v>44320</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -3176,7 +3182,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="3" t="n">
         <v>44321</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -3186,7 +3192,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="3" t="n">
         <v>44322</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -3196,7 +3202,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="3" t="n">
         <v>44323</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -3206,7 +3212,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="3" t="n">
         <v>44324</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -3216,7 +3222,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="3" t="n">
         <v>44325</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -3226,7 +3232,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="3" t="n">
         <v>44326</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -3236,7 +3242,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="3" t="n">
         <v>44327</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -3246,7 +3252,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="3" t="n">
         <v>44328</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -3256,7 +3262,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="3" t="n">
         <v>44329</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -3266,7 +3272,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="3" t="n">
         <v>44330</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -3276,7 +3282,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n">
+      <c r="A21" s="3" t="n">
         <v>44331</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -3286,7 +3292,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n">
+      <c r="A22" s="3" t="n">
         <v>44332</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -3296,7 +3302,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n">
+      <c r="A23" s="3" t="n">
         <v>44333</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -3306,7 +3312,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n">
+      <c r="A24" s="3" t="n">
         <v>44334</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -3316,7 +3322,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n">
+      <c r="A25" s="3" t="n">
         <v>44335</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -3326,7 +3332,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="n">
+      <c r="A26" s="3" t="n">
         <v>44336</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -3336,7 +3342,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n">
+      <c r="A27" s="3" t="n">
         <v>44337</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -3346,7 +3352,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="n">
+      <c r="A28" s="3" t="n">
         <v>44338</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -3356,7 +3362,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n">
+      <c r="A29" s="3" t="n">
         <v>44339</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -3366,7 +3372,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="n">
+      <c r="A30" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -3376,7 +3382,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n">
+      <c r="A31" s="3" t="n">
         <v>44341</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -3386,7 +3392,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="n">
+      <c r="A32" s="3" t="n">
         <v>44342</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -3396,7 +3402,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n">
+      <c r="A33" s="3" t="n">
         <v>44343</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -3406,7 +3412,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n">
+      <c r="A34" s="3" t="n">
         <v>44344</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -3416,7 +3422,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n">
+      <c r="A35" s="3" t="n">
         <v>44345</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -3426,7 +3432,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n">
+      <c r="A36" s="3" t="n">
         <v>44346</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -3436,7 +3442,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n">
+      <c r="A37" s="3" t="n">
         <v>44347</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -3446,7 +3452,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n">
+      <c r="A38" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -3456,7 +3462,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n">
+      <c r="A39" s="3" t="n">
         <v>44349</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -3466,7 +3472,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n">
+      <c r="A40" s="3" t="n">
         <v>44350</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -3476,7 +3482,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n">
+      <c r="A41" s="3" t="n">
         <v>44351</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -3486,7 +3492,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n">
+      <c r="A42" s="3" t="n">
         <v>44352</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -3496,7 +3502,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n">
+      <c r="A43" s="3" t="n">
         <v>44353</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -3506,7 +3512,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="n">
+      <c r="A44" s="3" t="n">
         <v>44354</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -3516,7 +3522,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n">
+      <c r="A45" s="3" t="n">
         <v>44355</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -3526,7 +3532,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n">
+      <c r="A46" s="3" t="n">
         <v>44356</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -3536,7 +3542,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n">
+      <c r="A47" s="3" t="n">
         <v>44357</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -3546,7 +3552,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n">
+      <c r="A48" s="3" t="n">
         <v>44358</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -3556,7 +3562,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n">
+      <c r="A49" s="3" t="n">
         <v>44359</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -3566,7 +3572,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n">
+      <c r="A50" s="3" t="n">
         <v>44360</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -3576,7 +3582,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n">
+      <c r="A51" s="3" t="n">
         <v>44361</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -3586,7 +3592,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="n">
+      <c r="A52" s="3" t="n">
         <v>44362</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -3596,7 +3602,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n">
+      <c r="A53" s="3" t="n">
         <v>44363</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -3606,7 +3612,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n">
+      <c r="A54" s="3" t="n">
         <v>44364</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -3616,7 +3622,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n">
+      <c r="A55" s="3" t="n">
         <v>44365</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -3626,7 +3632,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="n">
+      <c r="A56" s="3" t="n">
         <v>44366</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -3636,7 +3642,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n">
+      <c r="A57" s="3" t="n">
         <v>44367</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -3646,7 +3652,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="n">
+      <c r="A58" s="3" t="n">
         <v>44368</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -3656,7 +3662,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n">
+      <c r="A59" s="3" t="n">
         <v>44369</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -3666,7 +3672,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="n">
+      <c r="A60" s="3" t="n">
         <v>44370</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -3676,7 +3682,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="n">
+      <c r="A61" s="3" t="n">
         <v>44371</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -3686,7 +3692,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="n">
+      <c r="A62" s="3" t="n">
         <v>44372</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -3696,7 +3702,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="n">
+      <c r="A63" s="3" t="n">
         <v>44373</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -3706,7 +3712,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="n">
+      <c r="A64" s="3" t="n">
         <v>44374</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -3716,7 +3722,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="n">
+      <c r="A65" s="3" t="n">
         <v>44375</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -3726,7 +3732,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="n">
+      <c r="A66" s="3" t="n">
         <v>44376</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -3736,7 +3742,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="n">
+      <c r="A67" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -3746,7 +3752,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="n">
+      <c r="A68" s="3" t="n">
         <v>44378</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -3756,7 +3762,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="n">
+      <c r="A69" s="3" t="n">
         <v>44379</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -3766,7 +3772,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="n">
+      <c r="A70" s="3" t="n">
         <v>44380</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -3776,7 +3782,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="n">
+      <c r="A71" s="3" t="n">
         <v>44381</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -3786,7 +3792,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="n">
+      <c r="A72" s="3" t="n">
         <v>44382</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -3796,7 +3802,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="n">
+      <c r="A73" s="3" t="n">
         <v>44383</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -3806,7 +3812,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="n">
+      <c r="A74" s="3" t="n">
         <v>44384</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -3816,7 +3822,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="n">
+      <c r="A75" s="3" t="n">
         <v>44385</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -3826,7 +3832,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="n">
+      <c r="A76" s="3" t="n">
         <v>44386</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -3836,7 +3842,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="5" t="n">
+      <c r="A77" s="3" t="n">
         <v>44387</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -3846,7 +3852,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="5" t="n">
+      <c r="A78" s="3" t="n">
         <v>44388</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -3856,7 +3862,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="5" t="n">
+      <c r="A79" s="3" t="n">
         <v>44389</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -3866,7 +3872,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="n">
+      <c r="A80" s="3" t="n">
         <v>44390</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -3876,7 +3882,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="n">
+      <c r="A81" s="3" t="n">
         <v>44391</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -3886,7 +3892,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="5" t="n">
+      <c r="A82" s="3" t="n">
         <v>44392</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -3896,7 +3902,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="5" t="n">
+      <c r="A83" s="3" t="n">
         <v>44393</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -3906,7 +3912,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="5" t="n">
+      <c r="A84" s="3" t="n">
         <v>44394</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -3916,7 +3922,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="5" t="n">
+      <c r="A85" s="3" t="n">
         <v>44395</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -3926,7 +3932,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="5" t="n">
+      <c r="A86" s="3" t="n">
         <v>44396</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -3936,7 +3942,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="5" t="n">
+      <c r="A87" s="3" t="n">
         <v>44397</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -3946,7 +3952,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="5" t="n">
+      <c r="A88" s="3" t="n">
         <v>44398</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -3956,7 +3962,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="5" t="n">
+      <c r="A89" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -3966,7 +3972,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="5" t="n">
+      <c r="A90" s="3" t="n">
         <v>44400</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -3976,7 +3982,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="5" t="n">
+      <c r="A91" s="3" t="n">
         <v>44401</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -3986,7 +3992,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="5" t="n">
+      <c r="A92" s="3" t="n">
         <v>44402</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -3996,7 +4002,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="5" t="n">
+      <c r="A93" s="3" t="n">
         <v>44403</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -4006,7 +4012,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="5" t="n">
+      <c r="A94" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -4016,7 +4022,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="5" t="n">
+      <c r="A95" s="3" t="n">
         <v>44405</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -4026,7 +4032,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="5" t="n">
+      <c r="A96" s="3" t="n">
         <v>44406</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -4036,7 +4042,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="5" t="n">
+      <c r="A97" s="3" t="n">
         <v>44407</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -4046,7 +4052,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="5" t="n">
+      <c r="A98" s="3" t="n">
         <v>44408</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -4056,7 +4062,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="5" t="n">
+      <c r="A99" s="3" t="n">
         <v>44409</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -4066,7 +4072,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="5" t="n">
+      <c r="A100" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -4076,7 +4082,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="n">
+      <c r="A101" s="3" t="n">
         <v>44411</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -4086,7 +4092,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="n">
+      <c r="A102" s="3" t="n">
         <v>44412</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -4096,7 +4102,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="5" t="n">
+      <c r="A103" s="3" t="n">
         <v>44413</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -4106,7 +4112,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="5" t="n">
+      <c r="A104" s="3" t="n">
         <v>44414</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -4116,7 +4122,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="5" t="n">
+      <c r="A105" s="3" t="n">
         <v>44415</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -4126,7 +4132,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="5" t="n">
+      <c r="A106" s="3" t="n">
         <v>44416</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -4136,7 +4142,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="5" t="n">
+      <c r="A107" s="3" t="n">
         <v>44417</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -4146,7 +4152,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="5" t="n">
+      <c r="A108" s="3" t="n">
         <v>44418</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -4156,7 +4162,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="5" t="n">
+      <c r="A109" s="3" t="n">
         <v>44419</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -4166,7 +4172,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="5" t="n">
+      <c r="A110" s="3" t="n">
         <v>44420</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -4176,7 +4182,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="5" t="n">
+      <c r="A111" s="3" t="n">
         <v>44421</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -4186,7 +4192,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="5" t="n">
+      <c r="A112" s="3" t="n">
         <v>44422</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -4196,7 +4202,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="5" t="n">
+      <c r="A113" s="3" t="n">
         <v>44423</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -4206,7 +4212,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="5" t="n">
+      <c r="A114" s="3" t="n">
         <v>44424</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -4216,7 +4222,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="5" t="n">
+      <c r="A115" s="3" t="n">
         <v>44425</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -4226,7 +4232,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="5" t="n">
+      <c r="A116" s="3" t="n">
         <v>44426</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -4236,7 +4242,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="5" t="n">
+      <c r="A117" s="3" t="n">
         <v>44427</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -4246,7 +4252,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="5" t="n">
+      <c r="A118" s="3" t="n">
         <v>44428</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -4256,7 +4262,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="5" t="n">
+      <c r="A119" s="3" t="n">
         <v>44429</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -4266,7 +4272,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="5" t="n">
+      <c r="A120" s="3" t="n">
         <v>44430</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -4276,7 +4282,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="5" t="n">
+      <c r="A121" s="3" t="n">
         <v>44431</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -4286,7 +4292,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="5" t="n">
+      <c r="A122" s="3" t="n">
         <v>44432</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -4296,7 +4302,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="5" t="n">
+      <c r="A123" s="3" t="n">
         <v>44433</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -4306,7 +4312,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="5" t="n">
+      <c r="A124" s="3" t="n">
         <v>44434</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -4316,7 +4322,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="5" t="n">
+      <c r="A125" s="3" t="n">
         <v>44435</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -4326,7 +4332,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="5" t="n">
+      <c r="A126" s="3" t="n">
         <v>44436</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -4336,7 +4342,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="5" t="n">
+      <c r="A127" s="3" t="n">
         <v>44437</v>
       </c>
       <c r="B127" t="inlineStr">
@@ -4346,7 +4352,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="5" t="n">
+      <c r="A128" s="3" t="n">
         <v>44438</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -4356,7 +4362,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="5" t="n">
+      <c r="A129" s="3" t="n">
         <v>44439</v>
       </c>
       <c r="B129" t="inlineStr">

--- a/datasets/Ch4/daily_boxoffice.xlsx
+++ b/datasets/Ch4/daily_boxoffice.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="movies_data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="movies_fixed_dates" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="movies_fixed_dates1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,7 +19,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="mm-dd-yyyy"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="MM-DD-YYYY"/>
   </numFmts>
   <fonts count="2">
@@ -61,7 +60,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -72,18 +71,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1781,7 +1771,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="4" t="n">
         <v>44312</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1791,7 +1781,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="4" t="n">
         <v>44313</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1801,7 +1791,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="4" t="n">
         <v>44314</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1811,7 +1801,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="4" t="n">
         <v>44315</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -1821,7 +1811,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="4" t="n">
         <v>44316</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -1831,7 +1821,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="4" t="n">
         <v>44317</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -1841,7 +1831,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="4" t="n">
         <v>44318</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -1851,7 +1841,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="4" t="n">
         <v>44319</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -1861,7 +1851,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="4" t="n">
         <v>44320</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -1871,7 +1861,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="4" t="n">
         <v>44321</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -1881,7 +1871,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="4" t="n">
         <v>44322</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -1891,7 +1881,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="4" t="n">
         <v>44323</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -1901,7 +1891,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="n">
+      <c r="A14" s="4" t="n">
         <v>44324</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -1911,7 +1901,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="4" t="n">
         <v>44325</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -1921,7 +1911,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="n">
+      <c r="A16" s="4" t="n">
         <v>44326</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1931,7 +1921,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="4" t="n">
         <v>44327</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -1941,7 +1931,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n">
+      <c r="A18" s="4" t="n">
         <v>44328</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -1951,7 +1941,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="4" t="n">
         <v>44329</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -1961,7 +1951,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="n">
+      <c r="A20" s="4" t="n">
         <v>44330</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -1971,7 +1961,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="4" t="n">
         <v>44331</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -1981,7 +1971,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="n">
+      <c r="A22" s="4" t="n">
         <v>44332</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -1991,7 +1981,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n">
+      <c r="A23" s="4" t="n">
         <v>44333</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -2001,7 +1991,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="n">
+      <c r="A24" s="4" t="n">
         <v>44334</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -2011,7 +2001,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="n">
+      <c r="A25" s="4" t="n">
         <v>44335</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -2021,7 +2011,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="n">
+      <c r="A26" s="4" t="n">
         <v>44336</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -2031,7 +2021,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="n">
+      <c r="A27" s="4" t="n">
         <v>44337</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -2041,7 +2031,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n">
+      <c r="A28" s="4" t="n">
         <v>44338</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -2051,7 +2041,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="n">
+      <c r="A29" s="4" t="n">
         <v>44339</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -2061,7 +2051,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="n">
+      <c r="A30" s="4" t="n">
         <v>44340</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -2071,7 +2061,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="n">
+      <c r="A31" s="4" t="n">
         <v>44341</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -2081,7 +2071,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="n">
+      <c r="A32" s="4" t="n">
         <v>44342</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -2091,7 +2081,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="n">
+      <c r="A33" s="4" t="n">
         <v>44343</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -2101,7 +2091,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="n">
+      <c r="A34" s="4" t="n">
         <v>44344</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -2111,7 +2101,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="n">
+      <c r="A35" s="4" t="n">
         <v>44345</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -2121,7 +2111,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="n">
+      <c r="A36" s="4" t="n">
         <v>44346</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -2131,7 +2121,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="n">
+      <c r="A37" s="4" t="n">
         <v>44347</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -2141,7 +2131,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="n">
+      <c r="A38" s="4" t="n">
         <v>44348</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -2151,7 +2141,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="n">
+      <c r="A39" s="4" t="n">
         <v>44349</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -2161,7 +2151,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="n">
+      <c r="A40" s="4" t="n">
         <v>44350</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -2171,7 +2161,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="n">
+      <c r="A41" s="4" t="n">
         <v>44351</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -2181,7 +2171,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="n">
+      <c r="A42" s="4" t="n">
         <v>44352</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -2191,7 +2181,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="n">
+      <c r="A43" s="4" t="n">
         <v>44353</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -2201,7 +2191,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="n">
+      <c r="A44" s="4" t="n">
         <v>44354</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -2211,7 +2201,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="n">
+      <c r="A45" s="4" t="n">
         <v>44355</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -2221,7 +2211,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="n">
+      <c r="A46" s="4" t="n">
         <v>44356</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -2231,7 +2221,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="n">
+      <c r="A47" s="4" t="n">
         <v>44357</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -2241,7 +2231,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="n">
+      <c r="A48" s="4" t="n">
         <v>44358</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -2251,7 +2241,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="n">
+      <c r="A49" s="4" t="n">
         <v>44359</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -2261,7 +2251,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="n">
+      <c r="A50" s="4" t="n">
         <v>44360</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -2271,7 +2261,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="n">
+      <c r="A51" s="4" t="n">
         <v>44361</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -2281,7 +2271,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="n">
+      <c r="A52" s="4" t="n">
         <v>44362</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -2291,7 +2281,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="n">
+      <c r="A53" s="4" t="n">
         <v>44363</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -2301,7 +2291,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="n">
+      <c r="A54" s="4" t="n">
         <v>44364</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -2311,7 +2301,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="n">
+      <c r="A55" s="4" t="n">
         <v>44365</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -2321,7 +2311,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="n">
+      <c r="A56" s="4" t="n">
         <v>44366</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -2331,7 +2321,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="n">
+      <c r="A57" s="4" t="n">
         <v>44367</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -2341,7 +2331,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="n">
+      <c r="A58" s="4" t="n">
         <v>44368</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -2351,7 +2341,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="n">
+      <c r="A59" s="4" t="n">
         <v>44369</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -2361,7 +2351,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="n">
+      <c r="A60" s="4" t="n">
         <v>44370</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -2371,7 +2361,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="n">
+      <c r="A61" s="4" t="n">
         <v>44371</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -2381,7 +2371,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="n">
+      <c r="A62" s="4" t="n">
         <v>44372</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -2391,7 +2381,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="n">
+      <c r="A63" s="4" t="n">
         <v>44373</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -2401,7 +2391,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="n">
+      <c r="A64" s="4" t="n">
         <v>44374</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -2411,7 +2401,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="8" t="n">
+      <c r="A65" s="4" t="n">
         <v>44375</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -2421,7 +2411,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="8" t="n">
+      <c r="A66" s="4" t="n">
         <v>44376</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -2431,7 +2421,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="n">
+      <c r="A67" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -2441,7 +2431,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="n">
+      <c r="A68" s="4" t="n">
         <v>44378</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -2451,7 +2441,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="n">
+      <c r="A69" s="4" t="n">
         <v>44379</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -2461,7 +2451,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="8" t="n">
+      <c r="A70" s="4" t="n">
         <v>44380</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -2471,7 +2461,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="n">
+      <c r="A71" s="4" t="n">
         <v>44381</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -2481,7 +2471,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="n">
+      <c r="A72" s="4" t="n">
         <v>44382</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -2491,7 +2481,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="8" t="n">
+      <c r="A73" s="4" t="n">
         <v>44383</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -2501,7 +2491,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="8" t="n">
+      <c r="A74" s="4" t="n">
         <v>44384</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -2511,7 +2501,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="8" t="n">
+      <c r="A75" s="4" t="n">
         <v>44385</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -2521,7 +2511,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="8" t="n">
+      <c r="A76" s="4" t="n">
         <v>44386</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -2531,7 +2521,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="8" t="n">
+      <c r="A77" s="4" t="n">
         <v>44387</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -2541,7 +2531,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="8" t="n">
+      <c r="A78" s="4" t="n">
         <v>44388</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -2551,7 +2541,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="8" t="n">
+      <c r="A79" s="4" t="n">
         <v>44389</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -2561,7 +2551,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="8" t="n">
+      <c r="A80" s="4" t="n">
         <v>44390</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -2571,7 +2561,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="8" t="n">
+      <c r="A81" s="4" t="n">
         <v>44391</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -2581,7 +2571,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="8" t="n">
+      <c r="A82" s="4" t="n">
         <v>44392</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -2591,7 +2581,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="8" t="n">
+      <c r="A83" s="4" t="n">
         <v>44393</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -2601,7 +2591,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="8" t="n">
+      <c r="A84" s="4" t="n">
         <v>44394</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -2611,7 +2601,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="8" t="n">
+      <c r="A85" s="4" t="n">
         <v>44395</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -2621,7 +2611,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="8" t="n">
+      <c r="A86" s="4" t="n">
         <v>44396</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -2631,7 +2621,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="8" t="n">
+      <c r="A87" s="4" t="n">
         <v>44397</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -2641,7 +2631,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="8" t="n">
+      <c r="A88" s="4" t="n">
         <v>44398</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -2651,7 +2641,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="8" t="n">
+      <c r="A89" s="4" t="n">
         <v>44399</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -2661,7 +2651,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="8" t="n">
+      <c r="A90" s="4" t="n">
         <v>44400</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -2671,7 +2661,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="8" t="n">
+      <c r="A91" s="4" t="n">
         <v>44401</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -2681,7 +2671,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="8" t="n">
+      <c r="A92" s="4" t="n">
         <v>44402</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -2691,7 +2681,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="8" t="n">
+      <c r="A93" s="4" t="n">
         <v>44403</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -2701,7 +2691,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="8" t="n">
+      <c r="A94" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -2711,7 +2701,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="8" t="n">
+      <c r="A95" s="4" t="n">
         <v>44405</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -2721,7 +2711,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="8" t="n">
+      <c r="A96" s="4" t="n">
         <v>44406</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -2731,7 +2721,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="8" t="n">
+      <c r="A97" s="4" t="n">
         <v>44407</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -2741,7 +2731,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="8" t="n">
+      <c r="A98" s="4" t="n">
         <v>44408</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -2751,7 +2741,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="8" t="n">
+      <c r="A99" s="4" t="n">
         <v>44409</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -2761,7 +2751,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="8" t="n">
+      <c r="A100" s="4" t="n">
         <v>44410</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -2771,7 +2761,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="8" t="n">
+      <c r="A101" s="4" t="n">
         <v>44411</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -2781,7 +2771,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="8" t="n">
+      <c r="A102" s="4" t="n">
         <v>44412</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -2791,7 +2781,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="8" t="n">
+      <c r="A103" s="4" t="n">
         <v>44413</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -2801,7 +2791,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="8" t="n">
+      <c r="A104" s="4" t="n">
         <v>44414</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -2811,7 +2801,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="8" t="n">
+      <c r="A105" s="4" t="n">
         <v>44415</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -2821,7 +2811,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="8" t="n">
+      <c r="A106" s="4" t="n">
         <v>44416</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -2831,7 +2821,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="8" t="n">
+      <c r="A107" s="4" t="n">
         <v>44417</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -2841,7 +2831,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="8" t="n">
+      <c r="A108" s="4" t="n">
         <v>44418</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -2851,7 +2841,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="8" t="n">
+      <c r="A109" s="4" t="n">
         <v>44419</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -2861,7 +2851,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="8" t="n">
+      <c r="A110" s="4" t="n">
         <v>44420</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -2871,7 +2861,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="8" t="n">
+      <c r="A111" s="4" t="n">
         <v>44421</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -2881,7 +2871,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="8" t="n">
+      <c r="A112" s="4" t="n">
         <v>44422</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -2891,7 +2881,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="8" t="n">
+      <c r="A113" s="4" t="n">
         <v>44423</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -2901,7 +2891,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="8" t="n">
+      <c r="A114" s="4" t="n">
         <v>44424</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -2911,7 +2901,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="8" t="n">
+      <c r="A115" s="4" t="n">
         <v>44425</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -2921,7 +2911,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="8" t="n">
+      <c r="A116" s="4" t="n">
         <v>44426</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -2931,7 +2921,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="8" t="n">
+      <c r="A117" s="4" t="n">
         <v>44427</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -2941,7 +2931,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="8" t="n">
+      <c r="A118" s="4" t="n">
         <v>44428</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -2951,7 +2941,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="8" t="n">
+      <c r="A119" s="4" t="n">
         <v>44429</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -2961,7 +2951,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="8" t="n">
+      <c r="A120" s="4" t="n">
         <v>44430</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -2971,7 +2961,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="8" t="n">
+      <c r="A121" s="4" t="n">
         <v>44431</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -2981,7 +2971,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="8" t="n">
+      <c r="A122" s="4" t="n">
         <v>44432</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -2991,7 +2981,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="8" t="n">
+      <c r="A123" s="4" t="n">
         <v>44433</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -3001,7 +2991,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="8" t="n">
+      <c r="A124" s="4" t="n">
         <v>44434</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -3011,7 +3001,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="8" t="n">
+      <c r="A125" s="4" t="n">
         <v>44435</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -3021,7 +3011,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="8" t="n">
+      <c r="A126" s="4" t="n">
         <v>44436</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -3031,7 +3021,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="8" t="n">
+      <c r="A127" s="4" t="n">
         <v>44437</v>
       </c>
       <c r="B127" t="inlineStr">
@@ -3041,7 +3031,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="8" t="n">
+      <c r="A128" s="4" t="n">
         <v>44438</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -3051,1318 +3041,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="8" t="n">
-        <v>44439</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.00 </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B129"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Daily</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>44312</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $125,789.89 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>44313</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $99,374.01 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>44314</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $82,203.16 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>44315</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $33,530.26 </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44316</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $30,105.24 </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>44317</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $22,955.06 </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>44318</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $19,579.02 </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>44319</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $37,018.43 </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>44320</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $55,900.40 </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>44321</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $40,984.73 </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>44322</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $9,724.08 </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>44323</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $11,365.60 </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>44324</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $7,646.02 </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>44325</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $6,808.62 </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>44326</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $14,673.11 </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>44327</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $24,949.01 </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>44328</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $17,715.13 </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>44329</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $4,253.08 </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>44330</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $5,192.90 </t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>44331</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $3,418.58 </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>44332</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $3,079.61 </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>44333</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $6,729.05 </t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>44334</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $11,610.27 </t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>44335</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $8,627.63 </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>44336</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $2,838.02 </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>44337</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $2,601.62 </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>44338</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,783.67 </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>44339</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,700.49 </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>44340</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $3,812.59 </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>44341</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $5,737.14 </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>44342</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $5,744.27 </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>44343</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $4,312.33 </t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>44344</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,652.02 </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="n">
-        <v>44345</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,137.74 </t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>44346</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,000.02 </t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="n">
-        <v>44347</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,819.52 </t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="n">
-        <v>44348</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $2,955.72 </t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="n">
-        <v>44349</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $2,249.78 </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="n">
-        <v>44350</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $753.48 </t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="n">
-        <v>44351</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,044.94 </t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="n">
-        <v>44352</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $771.17 </t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="n">
-        <v>44353</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $733.69 </t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="n">
-        <v>44354</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,061.32 </t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="n">
-        <v>44355</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,718.47 </t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="n">
-        <v>44356</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,328.70 </t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="n">
-        <v>44357</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $497.96 </t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="n">
-        <v>44358</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $655.73 </t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="n">
-        <v>44359</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $492.32 </t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="n">
-        <v>44360</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $444.19 </t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="n">
-        <v>44361</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $670.71 </t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="n">
-        <v>44362</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,109.08 </t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="n">
-        <v>44363</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,199.77 </t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="n">
-        <v>44364</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $368.78 </t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="n">
-        <v>44365</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $467.51 </t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="n">
-        <v>44366</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $353.04 </t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="n">
-        <v>44367</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $288.62 </t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="n">
-        <v>44368</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $398.94 </t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="n">
-        <v>44369</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $608.86 </t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="n">
-        <v>44370</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $467.49 </t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="n">
-        <v>44371</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $196.29 </t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $247.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="n">
-        <v>44373</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $184.68 </t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="n">
-        <v>44374</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $204.38 </t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="n">
-        <v>44375</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,275.06 </t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="n">
-        <v>44376</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,537.63 </t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="n">
-        <v>44377</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,289.73 </t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="n">
-        <v>44378</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $578.32 </t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="n">
-        <v>44379</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $386.08 </t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="n">
-        <v>44380</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $409.16 </t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="n">
-        <v>44381</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $512.57 </t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="n">
-        <v>44382</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $693.22 </t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="n">
-        <v>44383</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $777.98 </t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="n">
-        <v>44384</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $525.73 </t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="n">
-        <v>44385</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $239.25 </t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="3" t="n">
-        <v>44386</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $316.44 </t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="n">
-        <v>44387</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $234.88 </t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="n">
-        <v>44388</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $214.09 </t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="n">
-        <v>44389</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $358.82 </t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="3" t="n">
-        <v>44390</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $495.82 </t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="3" t="n">
-        <v>44391</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $386.69 </t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="3" t="n">
-        <v>44392</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $191.04 </t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="n">
-        <v>44393</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $249.41 </t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="n">
-        <v>44394</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $197.38 </t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="n">
-        <v>44395</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $153.44 </t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="n">
-        <v>44396</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $249.68 </t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="n">
-        <v>44397</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $318.39 </t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="3" t="n">
-        <v>44398</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $238.63 </t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="3" t="n">
-        <v>44399</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $132.52 </t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="3" t="n">
-        <v>44400</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $155.97 </t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="3" t="n">
-        <v>44401</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $132.47 </t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="3" t="n">
-        <v>44402</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $125.49 </t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="n">
-        <v>44403</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $139.87 </t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="3" t="n">
-        <v>44404</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $192.14 </t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="3" t="n">
-        <v>44405</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $111.00 </t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="3" t="n">
-        <v>44406</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $57.23 </t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="3" t="n">
-        <v>44407</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $66.29 </t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="3" t="n">
-        <v>44408</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $48.06 </t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="n">
-        <v>44409</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $44.92 </t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="3" t="n">
-        <v>44410</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $41.23 </t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="n">
-        <v>44411</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $53.78 </t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="3" t="n">
-        <v>44412</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $39.33 </t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="3" t="n">
-        <v>44413</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $20.24 </t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="n">
-        <v>44414</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $20.54 </t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="3" t="n">
-        <v>44415</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $14.59 </t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="3" t="n">
-        <v>44416</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $11.46 </t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="3" t="n">
-        <v>44417</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $12.18 </t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="3" t="n">
-        <v>44418</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $17.24 </t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="n">
-        <v>44419</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $11.74 </t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="3" t="n">
-        <v>44420</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $4.80 </t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="3" t="n">
-        <v>44421</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $4.68 </t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="3" t="n">
-        <v>44422</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $2.63 </t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="3" t="n">
-        <v>44423</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1.92 </t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="3" t="n">
-        <v>44424</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $2.15 </t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="3" t="n">
-        <v>44425</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $2.69 </t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="3" t="n">
-        <v>44426</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1.34 </t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="3" t="n">
-        <v>44427</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.39 </t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="3" t="n">
-        <v>44428</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.19 </t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="3" t="n">
-        <v>44429</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.06 </t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="3" t="n">
-        <v>44430</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.07 </t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="3" t="n">
-        <v>44431</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.06 </t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="3" t="n">
-        <v>44432</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.04 </t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="3" t="n">
-        <v>44433</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.02 </t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="3" t="n">
-        <v>44434</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.01 </t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="3" t="n">
-        <v>44435</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.00 </t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="3" t="n">
-        <v>44436</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.00 </t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="3" t="n">
-        <v>44437</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.00 </t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="3" t="n">
-        <v>44438</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.00 </t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="3" t="n">
+      <c r="A129" s="4" t="n">
         <v>44439</v>
       </c>
       <c r="B129" t="inlineStr">
